--- a/venv/HomeWork/unittest_0314_excel/test.xlsx
+++ b/venv/HomeWork/unittest_0314_excel/test.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="6975" windowWidth="22335" xWindow="240" yWindow="540"/>
+    <workbookView xWindow="240" yWindow="540" windowWidth="22335" windowHeight="6975"/>
   </bookViews>
   <sheets>
-    <sheet name="python_test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="python_test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>url</t>
   </si>
@@ -26,32 +26,46 @@
   </si>
   <si>
     <t>http://119.23.241.154:8080/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8081/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8082/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8083/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8084/futureloan/mvc/api/member/login</t>
+  </si>
+  <si>
+    <t>http://119.23.241.154:8085/futureloan/mvc/api/member/login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,18 +81,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -366,22 +381,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="62.875"/>
-    <col customWidth="1" max="2" min="2" style="1" width="19.375"/>
-    <col customWidth="1" max="3" min="3" style="1" width="9"/>
+    <col min="1" max="1" width="62.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -399,10 +410,10 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>13752852018</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>123456</v>
       </c>
     </row>
@@ -410,15 +421,71 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>15123645350</v>
-      </c>
-      <c r="C3" s="1" t="n">
+      <c r="B3" s="1">
+        <v>13752852019</v>
+      </c>
+      <c r="C3" s="1">
+        <v>234567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>13752852020</v>
+      </c>
+      <c r="C4" s="1">
+        <v>234567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>13752852021</v>
+      </c>
+      <c r="C5" s="1">
+        <v>234567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>13752852022</v>
+      </c>
+      <c r="C6" s="1">
+        <v>234567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>13752852023</v>
+      </c>
+      <c r="C7" s="1">
+        <v>234567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>13752852024</v>
+      </c>
+      <c r="C8" s="1">
         <v>234567</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup copies="0" horizontalDpi="200" orientation="portrait" paperSize="9" verticalDpi="200"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>